--- a/TestOutPut/HybridReports.xlsx
+++ b/TestOutPut/HybridReports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\eclipse-workspace\pAInITe-master\TestInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA633F1-36D9-44FA-845B-A65B9C064F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33F1B25-8183-44A0-A378-086E1A9795C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="737" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>TCID</t>
   </si>
@@ -98,9 +98,6 @@
     <t>3.Click Login Button</t>
   </si>
   <si>
-    <t>harikrishnapara143@gmail.com</t>
-  </si>
-  <si>
     <t>1.Launch URL in Browser</t>
   </si>
   <si>
@@ -122,16 +119,13 @@
     <t>9.click on logout link</t>
   </si>
   <si>
-    <t>//*[@id="Password"</t>
-  </si>
-  <si>
     <t>https://demowebshop.tricentis.com/</t>
   </si>
   <si>
+    <t>harikrishnapara145@gmail.com</t>
+  </si>
+  <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -139,7 +133,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,7 +232,37 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -297,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -316,6 +340,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -693,8 +722,8 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="16">
-        <v>35</v>
+      <c r="D2" t="s" s="22">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +737,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,7 +780,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -763,15 +792,15 @@
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s" s="5">
         <v>34</v>
-      </c>
-      <c r="F3" t="s" s="5">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -786,7 +815,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -806,12 +835,12 @@
         <v>11</v>
       </c>
       <c r="F5" t="s" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -826,12 +855,12 @@
         <v>10</v>
       </c>
       <c r="F6" t="s" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -843,15 +872,15 @@
         <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s" s="13">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -866,12 +895,12 @@
         <v>10</v>
       </c>
       <c r="F8" t="s" s="15">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -880,13 +909,13 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s" s="17">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -905,11 +934,13 @@
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" t="s" s="19">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
@@ -923,7 +954,9 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" t="s" s="21">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TestOutPut/HybridReports.xlsx
+++ b/TestOutPut/HybridReports.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\eclipse-workspace\pAInITe-master\TestInput\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33F1B25-8183-44A0-A378-086E1A9795C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="737" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15030" windowHeight="6540" tabRatio="737" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
     <sheet name="ApplicationLogin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:E20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
   <si>
     <t>TCID</t>
   </si>
@@ -125,15 +120,27 @@
     <t>harikrishnapara145@gmail.com</t>
   </si>
   <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Blocked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +270,12 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -280,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -303,19 +316,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -325,7 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -345,6 +344,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -406,7 +406,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,27 +438,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,24 +472,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -683,22 +647,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.1796875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.140625" collapsed="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.54296875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.453125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.5703125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.42578125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,18 +676,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="22">
+      <c r="D2" t="s" s="21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s" s="22">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -733,24 +711,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.1796875" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.81640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="58.1796875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.7265625" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.140625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.85546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="58.140625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.42578125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -770,7 +748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -778,7 +756,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -791,14 +769,14 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s" s="5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3" t="s" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -814,11 +792,11 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" t="s" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -834,11 +812,11 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s" s="9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5" t="s" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -854,11 +832,11 @@
       <c r="E6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="11">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -871,14 +849,14 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s" s="13">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" t="s" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -894,11 +872,11 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="15">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8" t="s" s="14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -911,14 +889,14 @@
       <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="17">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" t="s" s="16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -934,11 +912,11 @@
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" t="s" s="19">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F10" t="s" s="18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -954,15 +932,15 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s" s="21">
-        <v>34</v>
+      <c r="F11" t="s" s="20">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{55335308-B9A2-4DF3-B5DC-57654160381D}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{F991D53D-E536-4BEE-BCD5-58021E63AB54}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{E29338D3-3CBD-42B6-9916-D87ECD959C62}"/>
+    <hyperlink ref="E7" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
